--- a/results/yq_test/Tetris_cz/Rb2Re4/cz_2q_radd_250.qasm_rb2_archsize4_mini_dis.xlsx
+++ b/results/yq_test/Tetris_cz/Rb2Re4/cz_2q_radd_250.qasm_rb2_archsize4_mini_dis.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N1482"/>
+  <dimension ref="A1:N1483"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9393870830535889</v>
+        <v>1.900743961334229</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.009268045425415039</v>
+        <v>0.01769900321960449</v>
       </c>
     </row>
     <row r="7">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2167701721191406</v>
+        <v>0.1783709526062012</v>
       </c>
     </row>
     <row r="8">
@@ -10898,7 +10898,7 @@
         </is>
       </c>
       <c r="B1476" t="n">
-        <v>0.0008357783312102099</v>
+        <v>0.0008357537039715599</v>
       </c>
     </row>
     <row r="1477">
@@ -10908,116 +10908,126 @@
         </is>
       </c>
       <c r="B1477" t="n">
-        <v>66788.8080212616</v>
+        <v>66833.0080212616</v>
       </c>
     </row>
     <row r="1478">
       <c r="A1478" t="inlineStr">
         <is>
-          <t>Movement times</t>
+          <t>move_fidelity</t>
         </is>
       </c>
       <c r="B1478" t="n">
-        <v>54</v>
+        <v>0.9967508791866314</v>
       </c>
     </row>
     <row r="1479">
       <c r="A1479" t="inlineStr">
         <is>
-          <t>parallel times</t>
+          <t>Movement times</t>
         </is>
       </c>
       <c r="B1479" t="n">
-        <v>1388</v>
+        <v>54</v>
       </c>
     </row>
     <row r="1480">
       <c r="A1480" t="inlineStr">
         <is>
-          <t>partitions</t>
+          <t>parallel times</t>
         </is>
       </c>
       <c r="B1480" t="n">
-        <v>9</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="1481">
       <c r="A1481" t="inlineStr">
         <is>
-          <t>total time:</t>
+          <t>partitions</t>
         </is>
       </c>
       <c r="B1481" t="n">
-        <v>1.224991083145142</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1482">
       <c r="A1482" t="inlineStr">
         <is>
+          <t>total time:</t>
+        </is>
+      </c>
+      <c r="B1482" t="n">
+        <v>2.190952777862549</v>
+      </c>
+    </row>
+    <row r="1483">
+      <c r="A1483" t="inlineStr">
+        <is>
           <t>T_cz</t>
         </is>
       </c>
-      <c r="B1482" t="inlineStr">
+      <c r="B1483" t="inlineStr">
         <is>
           <t>0.2</t>
         </is>
       </c>
-      <c r="C1482" t="inlineStr">
+      <c r="C1483" t="inlineStr">
         <is>
           <t>T_eff</t>
         </is>
       </c>
-      <c r="D1482" t="inlineStr">
+      <c r="D1483" t="inlineStr">
         <is>
           <t>1500000.0</t>
         </is>
       </c>
-      <c r="E1482" t="inlineStr">
+      <c r="E1483" t="inlineStr">
         <is>
           <t>T_trans</t>
         </is>
       </c>
-      <c r="F1482" t="inlineStr">
+      <c r="F1483" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G1482" t="inlineStr">
+      <c r="G1483" t="inlineStr">
         <is>
           <t>AOD_width</t>
         </is>
       </c>
-      <c r="H1482" t="inlineStr">
+      <c r="H1483" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="I1482" t="inlineStr">
+      <c r="I1483" t="inlineStr">
         <is>
           <t>AOD_height</t>
         </is>
       </c>
-      <c r="J1482" t="inlineStr">
+      <c r="J1483" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="K1482" t="inlineStr">
+      <c r="K1483" t="inlineStr">
         <is>
           <t>Move_speed</t>
         </is>
       </c>
-      <c r="L1482" t="inlineStr">
+      <c r="L1483" t="inlineStr">
         <is>
           <t>0.55</t>
         </is>
       </c>
-      <c r="M1482" t="inlineStr">
+      <c r="M1483" t="inlineStr">
         <is>
           <t>F_cz</t>
         </is>
       </c>
-      <c r="N1482" t="inlineStr">
+      <c r="N1483" t="inlineStr">
         <is>
           <t>0.995</t>
         </is>

--- a/results/yq_test/Tetris_cz/Rb2Re4/cz_2q_radd_250.qasm_rb2_archsize4_mini_dis.xlsx
+++ b/results/yq_test/Tetris_cz/Rb2Re4/cz_2q_radd_250.qasm_rb2_archsize4_mini_dis.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.900743961334229</v>
+        <v>0.002351760864257812</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01769900321960449</v>
+        <v>0.0009450912475585938</v>
       </c>
     </row>
     <row r="7">
@@ -497,13 +497,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1783709526062012</v>
+        <v>0.2384190559387207</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[(3, 0), (2, 2), (1, 0), (0, 2), (0, 3), (3, 2), (2, 0), (1, 2), (0, 0), (3, 1), (1, 1), (0, 1), (2, 1)]</t>
+          <t>[[3, 0], [2, 2], [1, 0], [0, 2], [0, 3], [3, 2], [2, 0], [1, 2], [0, 0], [3, 1], [1, 1], [0, 1], [2, 1]]</t>
         </is>
       </c>
     </row>
@@ -1463,7 +1463,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>[(2, 0), (2, 2), (3, 2), (2, 3), (0, 3), (3, 0), (2, 1), (0, 0), (1, 2), (0, 1), (1, 1), (0, 2), (1, 0)]</t>
+          <t>[[2, 0], [2, 2], [3, 2], [2, 3], [0, 3], [3, 0], [2, 1], [0, 0], [1, 2], [0, 1], [1, 1], [0, 2], [1, 0]]</t>
         </is>
       </c>
     </row>
@@ -3276,7 +3276,7 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>[(2, 0), (1, 2), (3, 2), (2, 3), (2, 2), (0, 3), (2, 1), (1, 3), (0, 0), (0, 1), (1, 0), (0, 2), (1, 1)]</t>
+          <t>[[2, 0], [1, 2], [3, 2], [2, 3], [2, 2], [0, 3], [2, 1], [1, 3], [0, 0], [0, 1], [1, 0], [0, 2], [1, 1]]</t>
         </is>
       </c>
     </row>
@@ -4005,7 +4005,7 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>[(1, 0), (2, 0), (3, 2), (2, 3), (2, 1), (1, 3), (0, 0), (0, 2), (0, 3), (2, 2), (0, 1), (1, 1), (1, 2)]</t>
+          <t>[[1, 0], [2, 0], [3, 2], [2, 3], [2, 1], [1, 3], [0, 0], [0, 2], [0, 3], [2, 2], [0, 1], [1, 1], [1, 2]]</t>
         </is>
       </c>
     </row>
@@ -5152,7 +5152,7 @@
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>[(1, 3), (2, 3), (3, 2), (0, 3), (0, 0), (2, 1), (2, 2), (0, 2), (1, 1), (2, 0), (0, 1), (1, 2), (1, 0)]</t>
+          <t>[[1, 3], [2, 3], [3, 2], [0, 3], [0, 0], [2, 1], [2, 2], [0, 2], [1, 1], [2, 0], [0, 1], [1, 2], [1, 0]]</t>
         </is>
       </c>
     </row>
@@ -6352,7 +6352,7 @@
     <row r="835">
       <c r="A835" t="inlineStr">
         <is>
-          <t>[(0, 1), (2, 3), (3, 2), (0, 3), (0, 0), (2, 0), (2, 2), (1, 2), (1, 0), (1, 1), (3, 1), (2, 1), (3, 0)]</t>
+          <t>[[0, 1], [2, 3], [3, 2], [0, 3], [0, 0], [2, 0], [2, 2], [1, 2], [1, 0], [1, 1], [3, 1], [2, 1], [3, 0]]</t>
         </is>
       </c>
     </row>
@@ -7286,7 +7286,7 @@
     <row r="967">
       <c r="A967" t="inlineStr">
         <is>
-          <t>[(3, 1), (2, 2), (3, 2), (2, 3), (0, 2), (3, 0), (1, 0), (1, 2), (2, 0), (1, 1), (0, 1), (2, 1), (0, 0)]</t>
+          <t>[[3, 1], [2, 2], [3, 2], [2, 3], [0, 2], [3, 0], [1, 0], [1, 2], [2, 0], [1, 1], [0, 1], [2, 1], [0, 0]]</t>
         </is>
       </c>
     </row>
@@ -8926,7 +8926,7 @@
     <row r="1197">
       <c r="A1197" t="inlineStr">
         <is>
-          <t>[(3, 2), (1, 3), (3, 0), (0, 3), (0, 0), (2, 3), (2, 1), (1, 1), (0, 2), (2, 2), (1, 2), (1, 0), (0, 1)]</t>
+          <t>[[3, 2], [1, 3], [3, 0], [0, 3], [0, 0], [2, 3], [2, 1], [1, 1], [0, 2], [2, 2], [1, 2], [1, 0], [0, 1]]</t>
         </is>
       </c>
     </row>
@@ -10768,7 +10768,7 @@
     <row r="1458">
       <c r="A1458" t="inlineStr">
         <is>
-          <t>[(3, 2), (0, 3), (0, 0), (1, 2), (1, 1), (2, 3), (2, 1), (1, 0), (0, 1), (2, 2), (1, 3), (2, 0), (0, 2)]</t>
+          <t>[[3, 2], [0, 3], [0, 0], [1, 2], [1, 1], [2, 3], [2, 1], [1, 0], [0, 1], [2, 2], [1, 3], [2, 0], [0, 2]]</t>
         </is>
       </c>
     </row>
@@ -10958,7 +10958,7 @@
         </is>
       </c>
       <c r="B1482" t="n">
-        <v>2.190952777862549</v>
+        <v>0.3130221366882324</v>
       </c>
     </row>
     <row r="1483">
